--- a/vTigerMaven/src/test/java/commondata/ContactTest.xlsx
+++ b/vTigerMaven/src/test/java/commondata/ContactTest.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="4695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
     <sheet name="Lead" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Oppertunity" sheetId="3" r:id="rId3"/>
+    <sheet name="Organization" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Firstdrop</t>
   </si>
@@ -163,13 +164,109 @@
   </si>
   <si>
     <t>watson.com</t>
+  </si>
+  <si>
+    <t>opportunity name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>lead source</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>sales stage</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>New Business</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Prospecting</t>
+  </si>
+  <si>
+    <t>oranization Name</t>
+  </si>
+  <si>
+    <t>tickerSymbol</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>otherphone</t>
+  </si>
+  <si>
+    <t>ownership</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>vjh</t>
+  </si>
+  <si>
+    <t>98000</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
+    <t>FaceBook</t>
+  </si>
+  <si>
+    <t>www.facebook.com</t>
+  </si>
+  <si>
+    <t>Jgdhj</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>www.google@gmail.com</t>
+  </si>
+  <si>
+    <t>www.fb@gmail.com</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>3456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +287,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,11 +320,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -745,12 +850,177 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>